--- a/upload/student_list_final.xlsx
+++ b/upload/student_list_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\SPM_Final\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{59D8D38E-6B0A-4728-958D-472EE09D0F5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{28641E7F-8407-43F9-B3FC-EC5CFE37E1C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7395" xr2:uid="{81562721-A1B2-458C-A7DE-070BAB01082F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{81562721-A1B2-458C-A7DE-070BAB01082F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -48,49 +48,391 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>SE02312</t>
-  </si>
-  <si>
-    <t>SE02321</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ES</t>
-  </si>
-  <si>
-    <t>Tran Van A</t>
-  </si>
-  <si>
-    <t>Nguyen Thi E</t>
-  </si>
-  <si>
-    <t>avtSE02312@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>entSE02321@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>0985359340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0914310156 </t>
-  </si>
-  <si>
     <t>IS</t>
+  </si>
+  <si>
+    <t>SE04178</t>
+  </si>
+  <si>
+    <t>22/03/1995</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>thinhdnse04178@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE04286</t>
+  </si>
+  <si>
+    <t>18/09/1996</t>
+  </si>
+  <si>
+    <t>datntse04286@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>SE05023</t>
+  </si>
+  <si>
+    <t>chienpnse05023@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE04914</t>
+  </si>
+  <si>
+    <t>30/01/1995</t>
+  </si>
+  <si>
+    <t>hoangtmse04914@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE04288</t>
+  </si>
+  <si>
+    <t>29/06/1996</t>
+  </si>
+  <si>
+    <t>cuongvmse04288@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SB01974</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>linhnthsb01974@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>SE05581</t>
+  </si>
+  <si>
+    <t>dungnvse05581@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SE04788</t>
+  </si>
+  <si>
+    <t>nghiantse04788@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE06005</t>
+  </si>
+  <si>
+    <t>25/09/1998</t>
+  </si>
+  <si>
+    <t>anhpvtse06005@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE04220</t>
+  </si>
+  <si>
+    <t>24/05/1996</t>
+  </si>
+  <si>
+    <t>quangcxse04220@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>SE04221</t>
+  </si>
+  <si>
+    <t>28/07/1996</t>
+  </si>
+  <si>
+    <t>bachnvse04221@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE04186</t>
+  </si>
+  <si>
+    <t>26/02/1996</t>
+  </si>
+  <si>
+    <t>lannhse04186@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE04082</t>
+  </si>
+  <si>
+    <t>25/07/1996</t>
+  </si>
+  <si>
+    <t>linhbhse04082@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE61898</t>
+  </si>
+  <si>
+    <t>phulhdse61898@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE05929</t>
+  </si>
+  <si>
+    <t>17/04/1998</t>
+  </si>
+  <si>
+    <t>sonbnse05929@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE04064</t>
+  </si>
+  <si>
+    <t>haodhse04064@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE05616</t>
+  </si>
+  <si>
+    <t>26/07/1998</t>
+  </si>
+  <si>
+    <t>namndhse05616@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE61734</t>
+  </si>
+  <si>
+    <t>24/10/1995</t>
+  </si>
+  <si>
+    <t>anhhnse61734@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SB01630</t>
+  </si>
+  <si>
+    <t>31/03/1996</t>
+  </si>
+  <si>
+    <t>hanttsb01630@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE05942</t>
+  </si>
+  <si>
+    <t>13/06/1998</t>
+  </si>
+  <si>
+    <t>tungnnse05942@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE04276</t>
+  </si>
+  <si>
+    <t>13/02/1996</t>
+  </si>
+  <si>
+    <t>sonvhse04276@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SB02460</t>
+  </si>
+  <si>
+    <t>13/07/1998</t>
+  </si>
+  <si>
+    <t>huyennttsb02460@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE04412</t>
+  </si>
+  <si>
+    <t>26/11/1996</t>
+  </si>
+  <si>
+    <t>namndse04412@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE05137</t>
+  </si>
+  <si>
+    <t>minhnqse05137@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>0905252588</t>
+  </si>
+  <si>
+    <t>01643867868</t>
+  </si>
+  <si>
+    <t>0987398856</t>
+  </si>
+  <si>
+    <t>0982188757</t>
+  </si>
+  <si>
+    <t>0943660905</t>
+  </si>
+  <si>
+    <t>01678493117</t>
+  </si>
+  <si>
+    <t>0985910498</t>
+  </si>
+  <si>
+    <t>01673943037</t>
+  </si>
+  <si>
+    <t>01648672547</t>
+  </si>
+  <si>
+    <t>0916488977</t>
+  </si>
+  <si>
+    <t>01227262009</t>
+  </si>
+  <si>
+    <t>01222424425</t>
+  </si>
+  <si>
+    <t>01648250796</t>
+  </si>
+  <si>
+    <t>0979170669</t>
+  </si>
+  <si>
+    <t>01698707633</t>
+  </si>
+  <si>
+    <t>0963969916</t>
+  </si>
+  <si>
+    <t>01637522555</t>
+  </si>
+  <si>
+    <t>01635123678</t>
+  </si>
+  <si>
+    <t>0946930744</t>
+  </si>
+  <si>
+    <t>0938495820</t>
+  </si>
+  <si>
+    <t>01287137536</t>
+  </si>
+  <si>
+    <t>01264098302</t>
+  </si>
+  <si>
+    <t>01638001451</t>
+  </si>
+  <si>
+    <t>0943119411</t>
+  </si>
+  <si>
+    <t>04/06/1997</t>
+  </si>
+  <si>
+    <t>04/01/1997</t>
+  </si>
+  <si>
+    <t>04/01/1998</t>
+  </si>
+  <si>
+    <t>05/03/1997</t>
+  </si>
+  <si>
+    <t>06/02/1996</t>
+  </si>
+  <si>
+    <t>03/11/1995</t>
+  </si>
+  <si>
+    <t>05/01/1997</t>
+  </si>
+  <si>
+    <t>Do Ngoc Thinh</t>
+  </si>
+  <si>
+    <t>Nguyen Tien Dat</t>
+  </si>
+  <si>
+    <t>Pham Ngoc Chien</t>
+  </si>
+  <si>
+    <t>Vu Manh Cuong</t>
+  </si>
+  <si>
+    <t>Nguyen Viet Dung</t>
+  </si>
+  <si>
+    <t>Nguyen Trung Nghia</t>
+  </si>
+  <si>
+    <t>Pham Vu Tien Anh</t>
+  </si>
+  <si>
+    <t>Bui Ngoc Son</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Tung</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thanh Huyen</t>
+  </si>
+  <si>
+    <t>Nguyen Quang Minh</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thu Ha</t>
+  </si>
+  <si>
+    <t>Nguyen Viet Bach</t>
+  </si>
+  <si>
+    <t>Tran Minh Hoang</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Hoai Linh</t>
+  </si>
+  <si>
+    <t>Can Xuan Quang</t>
+  </si>
+  <si>
+    <t>Ngo Hoang Lan</t>
+  </si>
+  <si>
+    <t>Bui Hoang Linh</t>
+  </si>
+  <si>
+    <t>Luu Huynh Duc Phu</t>
+  </si>
+  <si>
+    <t>Dang Hoa Hao</t>
+  </si>
+  <si>
+    <t>Nguyen Duc Hoai Nam</t>
+  </si>
+  <si>
+    <t>Huỳnh Nhat Anh</t>
+  </si>
+  <si>
+    <t>Vu Hoang Son</t>
+  </si>
+  <si>
+    <t>Nguyen Dinh Nam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[&lt;=9999999][$-1000000]###\-####;[$-1000000]\(#\)\ ###\-####"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,18 +447,18 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,25 +477,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
@@ -495,149 +859,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C0550F-2013-4381-8714-14CBFE6F8E2A}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
-        <v>33211</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>35250</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{423DE728-0DF9-475F-8308-C20BC10FE084}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{9A43DC40-755A-4995-8AC5-0E0BF16C1EBF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>